--- a/notes/shooting-data.xlsx
+++ b/notes/shooting-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephs/Projects/robotics/22/FRC-2022-robot/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F802694-F485-6942-B624-2F8FF5EEBB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F74B00-DF49-A848-8532-F38B943CD3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{10BB9638-A761-5145-8702-D8C65634BAC2}"/>
   </bookViews>
@@ -226,7 +226,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
@@ -257,6 +257,20 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1525,7 +1539,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notes/shooting-data.xlsx
+++ b/notes/shooting-data.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephs/Projects/robotics/22/FRC-2022-robot/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F74B00-DF49-A848-8532-F38B943CD3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573BB9BF-F875-8248-BF69-8A6A0DF0684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{10BB9638-A761-5145-8702-D8C65634BAC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2:$D$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2:$D$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$2:$D$27</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,6 +131,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RPM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -642,7 +655,561 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7616-144D-99A2-AF8FA1304C85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728159680"/>
+        <c:axId val="728161328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728159680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728161328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728161328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728159680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1198,6 +1765,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1231,6 +2314,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F8CE43-E6C0-FC4B-BF85-CAE55BEC3A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1538,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D168F4-107D-014B-9BA2-3740B690EC50}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,7 +2739,7 @@
         <v>-10</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C17" si="0">34 + A5*12 + B5</f>
+        <f t="shared" ref="C5:C15" si="0">34 + A5*12 + B5</f>
         <v>144</v>
       </c>
       <c r="D5">
@@ -1809,7 +2928,7 @@
         <v>-12</v>
       </c>
       <c r="C16">
-        <f>34 + A16*12 + B16</f>
+        <f t="shared" ref="C16:C27" si="1">34 + A16*12 + B16</f>
         <v>94</v>
       </c>
       <c r="D16">
@@ -1824,7 +2943,7 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <f>34 + A17*12 + B17</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="D17">
@@ -1842,7 +2961,7 @@
         <v>-6</v>
       </c>
       <c r="C18">
-        <f>34 + A18*12 + B18</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D18">
@@ -1857,7 +2976,7 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <f>34 + A19*12 + B19</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="D19">
@@ -1872,7 +2991,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <f>34 + A20*12 + B20</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="D20">
@@ -1887,7 +3006,7 @@
         <v>-12</v>
       </c>
       <c r="C21">
-        <f>34 + A21*12 + B21</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="D21">
@@ -1902,7 +3021,7 @@
         <v>-12</v>
       </c>
       <c r="C22">
-        <f>34 + A22*12 + B22</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="D22">
@@ -1917,7 +3036,7 @@
         <v>-2</v>
       </c>
       <c r="C23">
-        <f>34 + A23*12 + B23</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="D23">
@@ -1932,7 +3051,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <f>34 + A24*12 + B24</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="D24">
@@ -1947,7 +3066,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <f>34 + A25*12 + B25</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="D25">
@@ -1962,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <f>34 + A26*12 + B26</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="D26">
@@ -1977,7 +3096,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <f>34 + A27*12 + B27</f>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="D27">

--- a/notes/shooting-data.xlsx
+++ b/notes/shooting-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephs/Projects/robotics/22/FRC-2022-robot/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573BB9BF-F875-8248-BF69-8A6A0DF0684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF450AE-9071-5D44-B318-653C8510163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{10BB9638-A761-5145-8702-D8C65634BAC2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{10BB9638-A761-5145-8702-D8C65634BAC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
   <si>
     <t>RPM</t>
   </si>
@@ -62,6 +63,21 @@
   </si>
   <si>
     <t>Extrapolated measurement, off grid, rim shot</t>
+  </si>
+  <si>
+    <t>Video #</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>Inbetween</t>
+  </si>
+  <si>
+    <t>not a dupe</t>
+  </si>
+  <si>
+    <t>Rim, shallow</t>
   </si>
 </sst>
 </file>
@@ -1169,6 +1185,1632 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8362286172347986E-3"/>
+                  <c:y val="-8.3886938574150818E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7DB-9F49-B6FE-E1BF1C86645E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="621970463"/>
+        <c:axId val="624303359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="621970463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624303359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="624303359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621970463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14748859479628082"/>
+                  <c:y val="-2.7560210902302421E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-156D-1441-BABF-3E2B1D122B20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1972572880"/>
+        <c:axId val="1974247088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1972572880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974247088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1974247088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1972572880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1249,6 +2891,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1766,6 +3488,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2338,6 +5092,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F8CE43-E6C0-FC4B-BF85-CAE55BEC3A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391297</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>766576</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102973</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879FBF11-FC70-E44A-861B-514E2E04A161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>402739</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>686486</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1611A0CB-51FF-3B4B-91B6-8B4549123CB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,8 +5488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D168F4-107D-014B-9BA2-3740B690EC50}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3107,4 +5938,1543 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D19A96F-164C-BC4D-B864-349272206B5F}">
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-6</v>
+      </c>
+      <c r="C2">
+        <f>34 + A2*12 + B2</f>
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>2800</v>
+      </c>
+      <c r="E2">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C80" si="0">34 + A3*12 + B3</f>
+        <v>114</v>
+      </c>
+      <c r="D3">
+        <v>2800</v>
+      </c>
+      <c r="E3">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <v>2800</v>
+      </c>
+      <c r="E4">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D5">
+        <v>2900</v>
+      </c>
+      <c r="E5">
+        <v>7182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="D6">
+        <v>2900</v>
+      </c>
+      <c r="E6">
+        <v>7182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>2900</v>
+      </c>
+      <c r="E7">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>2700</v>
+      </c>
+      <c r="E8">
+        <v>7183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>2700</v>
+      </c>
+      <c r="E9">
+        <v>7183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>3000</v>
+      </c>
+      <c r="E10">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D11">
+        <v>3000</v>
+      </c>
+      <c r="E11">
+        <v>7184</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>-4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <v>2900</v>
+      </c>
+      <c r="E12">
+        <v>7187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="D13">
+        <v>2900</v>
+      </c>
+      <c r="E13">
+        <v>7187</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D14">
+        <v>2900</v>
+      </c>
+      <c r="E14">
+        <v>7187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D15">
+        <v>3000</v>
+      </c>
+      <c r="E15">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>3000</v>
+      </c>
+      <c r="E16">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>3000</v>
+      </c>
+      <c r="E17">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D18">
+        <v>3000</v>
+      </c>
+      <c r="E18">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D19">
+        <v>3200</v>
+      </c>
+      <c r="E19">
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D20">
+        <v>3100</v>
+      </c>
+      <c r="E20">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D21">
+        <v>3100</v>
+      </c>
+      <c r="E21">
+        <v>7190</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>-10</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>2800</v>
+      </c>
+      <c r="E22">
+        <v>7191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>-10</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>3000</v>
+      </c>
+      <c r="E23">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D24">
+        <v>3000</v>
+      </c>
+      <c r="E24">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>-4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="D25">
+        <v>3000</v>
+      </c>
+      <c r="E25">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D26">
+        <v>3000</v>
+      </c>
+      <c r="E26">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>-8</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D27">
+        <v>2900</v>
+      </c>
+      <c r="E27">
+        <v>7193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>-11</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>2900</v>
+      </c>
+      <c r="E28">
+        <v>7193</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>-8</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D29">
+        <v>2900</v>
+      </c>
+      <c r="E29">
+        <v>7193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>-11</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="D30">
+        <v>2900</v>
+      </c>
+      <c r="E30">
+        <v>7193</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D31">
+        <v>3200</v>
+      </c>
+      <c r="E31">
+        <v>7194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>3200</v>
+      </c>
+      <c r="E32">
+        <v>7194</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D33">
+        <v>3200</v>
+      </c>
+      <c r="E33">
+        <v>7194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="D34">
+        <v>3200</v>
+      </c>
+      <c r="E34">
+        <v>7194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D35">
+        <v>3100</v>
+      </c>
+      <c r="E35">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D36">
+        <v>3100</v>
+      </c>
+      <c r="E36">
+        <v>7195</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D37">
+        <v>3100</v>
+      </c>
+      <c r="E37">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>-8</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D38">
+        <v>3100</v>
+      </c>
+      <c r="E38">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>-10</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="D39">
+        <v>3100</v>
+      </c>
+      <c r="E39">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="D40">
+        <v>3100</v>
+      </c>
+      <c r="E40">
+        <v>7196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>-4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D41">
+        <v>3100</v>
+      </c>
+      <c r="E41">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>-8</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="D42">
+        <v>3100</v>
+      </c>
+      <c r="E42">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>-1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="D43">
+        <v>3200</v>
+      </c>
+      <c r="E43">
+        <v>7199</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="D44">
+        <v>3200</v>
+      </c>
+      <c r="E44">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>-5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="D45">
+        <v>3200</v>
+      </c>
+      <c r="E45">
+        <v>7199</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="D46">
+        <v>3200</v>
+      </c>
+      <c r="E46">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="D47">
+        <v>3300</v>
+      </c>
+      <c r="E47">
+        <v>7200</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D48">
+        <v>3300</v>
+      </c>
+      <c r="E48">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="D49">
+        <v>3300</v>
+      </c>
+      <c r="E49">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="D50">
+        <v>3400</v>
+      </c>
+      <c r="E50">
+        <v>7201</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>-11</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="D51">
+        <v>3200</v>
+      </c>
+      <c r="E51">
+        <v>7202</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>-10</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D52">
+        <v>3200</v>
+      </c>
+      <c r="E52">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>3200</v>
+      </c>
+      <c r="E53">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="D54">
+        <v>3300</v>
+      </c>
+      <c r="E54">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>-8</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="D55">
+        <v>3300</v>
+      </c>
+      <c r="E55">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="D56">
+        <v>3300</v>
+      </c>
+      <c r="E56">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>-3</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="D57">
+        <v>3300</v>
+      </c>
+      <c r="E57">
+        <v>7203</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D58">
+        <v>3400</v>
+      </c>
+      <c r="E58">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D59">
+        <v>3400</v>
+      </c>
+      <c r="E59">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D60">
+        <v>3400</v>
+      </c>
+      <c r="E60">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>-2</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="D61">
+        <v>3400</v>
+      </c>
+      <c r="E61">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>-12</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D62">
+        <v>3300</v>
+      </c>
+      <c r="E62">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>-12</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D63">
+        <v>3300</v>
+      </c>
+      <c r="E63">
+        <v>7205</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>-13</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="D64">
+        <v>3300</v>
+      </c>
+      <c r="E64">
+        <v>7205</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="D65">
+        <v>3400</v>
+      </c>
+      <c r="E65">
+        <v>7206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>-6</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D66">
+        <v>3400</v>
+      </c>
+      <c r="E66">
+        <v>7206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>-1</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="D67">
+        <v>3400</v>
+      </c>
+      <c r="E67">
+        <v>7206</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>-6</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D68">
+        <v>3400</v>
+      </c>
+      <c r="E68">
+        <v>7206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>-3</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="D69">
+        <v>3500</v>
+      </c>
+      <c r="E69">
+        <v>7207</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="D70">
+        <v>2800</v>
+      </c>
+      <c r="E70">
+        <v>7208</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="D71">
+        <v>2800</v>
+      </c>
+      <c r="E71">
+        <v>7208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D72">
+        <v>2800</v>
+      </c>
+      <c r="E72">
+        <v>7208</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="D73">
+        <v>2800</v>
+      </c>
+      <c r="E73">
+        <v>7208</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="D74">
+        <v>2700</v>
+      </c>
+      <c r="E74">
+        <v>7209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D75">
+        <v>2700</v>
+      </c>
+      <c r="E75">
+        <v>7209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <v>2800</v>
+      </c>
+      <c r="E76">
+        <v>7211</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D77">
+        <v>2800</v>
+      </c>
+      <c r="E77">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <v>2800</v>
+      </c>
+      <c r="E78">
+        <v>7211</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>2700</v>
+      </c>
+      <c r="E79">
+        <v>7212</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>2700</v>
+      </c>
+      <c r="E80">
+        <v>7212</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>